--- a/07_Planungspräsentation/Aufgabenverteilung.xlsx
+++ b/07_Planungspräsentation/Aufgabenverteilung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="14115" windowHeight="7230" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="14115" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Achim</t>
   </si>
@@ -73,6 +73,81 @@
   </si>
   <si>
     <t>Tisch</t>
+  </si>
+  <si>
+    <t>Modell Tisch</t>
+  </si>
+  <si>
+    <t>Modell Baum</t>
+  </si>
+  <si>
+    <t>Modell Flur und Wohnzimmer</t>
+  </si>
+  <si>
+    <t>300 Zeichen</t>
+  </si>
+  <si>
+    <t>Planungspräsentation</t>
+  </si>
+  <si>
+    <t>Storyreel</t>
+  </si>
+  <si>
+    <t>Modelle für Kamerafahrtenvideo</t>
+  </si>
+  <si>
+    <t>Animationen für  Kamerafahrtenvideo</t>
+  </si>
+  <si>
+    <t>Kamerabewegungen für  Kamerafahrtenvideo</t>
+  </si>
+  <si>
+    <t>Modell Leiter</t>
+  </si>
+  <si>
+    <t>Modell Christbaumkugeln</t>
+  </si>
+  <si>
+    <t>Modell Minion</t>
+  </si>
+  <si>
+    <t>Beleuchtung für Abgabevideo</t>
+  </si>
+  <si>
+    <t>Animation Minion 1</t>
+  </si>
+  <si>
+    <t>Animation Minion 2</t>
+  </si>
+  <si>
+    <t>Animation Kiste</t>
+  </si>
+  <si>
+    <t>Rendern von Szene im Flur</t>
+  </si>
+  <si>
+    <t>Beleuchtung Weihnachtsbaum</t>
+  </si>
+  <si>
+    <t>Modell Sofa</t>
+  </si>
+  <si>
+    <t>Modell Kiste mit Weihnachtsschmuck</t>
+  </si>
+  <si>
+    <t>Modelle Geschenke</t>
+  </si>
+  <si>
+    <t>Physics für Kiste mit Weihnachtsschmuck</t>
+  </si>
+  <si>
+    <t>Rendern von Nahaufnahme Minion 1 und 2</t>
+  </si>
+  <si>
+    <t>Rendern von Folgenden Kameras bei fallenden Dingen</t>
+  </si>
+  <si>
+    <t>Rendern von Gesamtansichten</t>
   </si>
 </sst>
 </file>
@@ -104,7 +179,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -121,11 +196,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -427,16 +505,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
     <col min="4" max="4" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -452,39 +530,141 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
+        <v>42324</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>42330</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>42337</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>42344</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>42351</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -492,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +682,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
